--- a/results/2024_MVT_Genset_Fuel_Savings.xlsx
+++ b/results/2024_MVT_Genset_Fuel_Savings.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="1511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3434" uniqueCount="1508">
   <si>
     <t>Date</t>
   </si>
@@ -4525,15 +4525,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
     <t>April</t>
   </si>
   <si>
@@ -4558,7 +4549,7 @@
     <t>November</t>
   </si>
   <si>
-    <t>December</t>
+    <t>Yearly Totals</t>
   </si>
 </sst>
 </file>
@@ -4890,7 +4881,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4925,24 +4916,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>1501</v>
-      </c>
-    </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="B5">
         <v>22695.516</v>
@@ -4971,7 +4947,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="B6">
         <v>22695.516</v>
@@ -5000,128 +4976,152 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D7" t="s">
-        <v>378</v>
-      </c>
-      <c r="E7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G7" t="s">
-        <v>385</v>
-      </c>
-      <c r="H7" t="s">
-        <v>387</v>
-      </c>
-      <c r="I7" t="s">
-        <v>390</v>
+        <v>1501</v>
+      </c>
+      <c r="B7">
+        <v>40002.638</v>
+      </c>
+      <c r="C7">
+        <v>237</v>
+      </c>
+      <c r="D7">
+        <v>12000.7914</v>
+      </c>
+      <c r="E7">
+        <v>118500</v>
+      </c>
+      <c r="F7">
+        <v>130500.7914</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>1505</v>
+        <v>1502</v>
+      </c>
+      <c r="B8">
+        <v>18120.153</v>
+      </c>
+      <c r="C8">
+        <v>133</v>
+      </c>
+      <c r="D8">
+        <v>5436.045899999999</v>
+      </c>
+      <c r="E8">
+        <v>66500</v>
+      </c>
+      <c r="F8">
+        <v>71936.0459</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B9" t="s">
-        <v>809</v>
-      </c>
-      <c r="C9" t="s">
-        <v>812</v>
-      </c>
-      <c r="D9" t="s">
-        <v>814</v>
-      </c>
-      <c r="E9" t="s">
-        <v>816</v>
-      </c>
-      <c r="F9" t="s">
-        <v>818</v>
-      </c>
-      <c r="G9" t="s">
-        <v>821</v>
-      </c>
-      <c r="H9" t="s">
-        <v>823</v>
-      </c>
-      <c r="I9" t="s">
-        <v>825</v>
+        <v>1503</v>
+      </c>
+      <c r="B9">
+        <v>27648.701</v>
+      </c>
+      <c r="C9">
+        <v>192</v>
+      </c>
+      <c r="D9">
+        <v>8294.6103</v>
+      </c>
+      <c r="E9">
+        <v>96000</v>
+      </c>
+      <c r="F9">
+        <v>104294.6103</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>1507</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1039</v>
+        <v>1504</v>
+      </c>
+      <c r="B10">
+        <v>34465.025</v>
+      </c>
+      <c r="C10">
+        <v>289</v>
+      </c>
+      <c r="D10">
+        <v>10339.5075</v>
+      </c>
+      <c r="E10">
+        <v>144500</v>
+      </c>
+      <c r="F10">
+        <v>154839.5075</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1339</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1341</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1343</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1347</v>
+        <v>1505</v>
+      </c>
+      <c r="B11">
+        <v>44602.913</v>
+      </c>
+      <c r="C11">
+        <v>312</v>
+      </c>
+      <c r="D11">
+        <v>13380.8739</v>
+      </c>
+      <c r="E11">
+        <v>156000</v>
+      </c>
+      <c r="F11">
+        <v>169380.8739</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="B12">
         <v>22695.516</v>
@@ -5148,9 +5148,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>1510</v>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B14">
+        <v>232925.978</v>
+      </c>
+      <c r="C14">
+        <v>1652</v>
+      </c>
+      <c r="D14">
+        <v>69877.7934</v>
+      </c>
+      <c r="E14">
+        <v>826000</v>
+      </c>
+      <c r="F14">
+        <v>895877.7934000001</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
